--- a/3692 HK Hansoh.xlsx
+++ b/3692 HK Hansoh.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368B9028-B99B-4684-8F88-BB84D639FD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF52B02-A2C2-466D-BFED-3FF0DA2B5ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16050" yWindow="1290" windowWidth="33330" windowHeight="17175" xr2:uid="{932E178C-2618-490A-9E75-A7D2FB8C4B93}"/>
+    <workbookView xWindow="-50100" yWindow="2280" windowWidth="22875" windowHeight="18315" xr2:uid="{932E178C-2618-490A-9E75-A7D2FB8C4B93}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Price HKD</t>
   </si>
@@ -47,12 +48,6 @@
     <t>MC HKD</t>
   </si>
   <si>
-    <t>Cash HKD</t>
-  </si>
-  <si>
-    <t>Debt HKD</t>
-  </si>
-  <si>
     <t>EV HKD</t>
   </si>
   <si>
@@ -71,15 +66,112 @@
     <t>EGFR</t>
   </si>
   <si>
-    <t>Q222</t>
+    <t>HS-20093</t>
+  </si>
+  <si>
+    <t>B7-H3 ADC</t>
+  </si>
+  <si>
+    <t>MOA</t>
+  </si>
+  <si>
+    <t>Indication</t>
+  </si>
+  <si>
+    <t>HS-20105</t>
+  </si>
+  <si>
+    <t>HS-10518</t>
+  </si>
+  <si>
+    <t>HS-10516</t>
+  </si>
+  <si>
+    <t>HS-20117</t>
+  </si>
+  <si>
+    <t>HS-10506</t>
+  </si>
+  <si>
+    <t>HS-10390</t>
+  </si>
+  <si>
+    <t>FSGS</t>
+  </si>
+  <si>
+    <t>ERA</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>S&amp;M</t>
+  </si>
+  <si>
+    <t>G&amp;A</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Ameining (agomelatine)</t>
+  </si>
+  <si>
+    <t>Ailanning (paliperidone)</t>
+  </si>
+  <si>
+    <t>Oulanning (olanzapine)</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Cash RMB</t>
+  </si>
+  <si>
+    <t>Debt RMB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -192,11 +284,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -208,12 +299,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{4CE12B79-7D7E-492B-A623-7F321969066E}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -226,9 +322,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -266,7 +362,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -372,7 +468,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -514,7 +610,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -522,116 +618,519 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DE6A44-E087-4669-9C3D-6CC909AE9090}">
-  <dimension ref="B2:K7"/>
+  <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
       <c r="I2" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>14.84</v>
+        <v>19.739999999999998</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3"/>
       <c r="I3" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="12">
-        <v>5922.3500700000004</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>11</v>
+      <c r="J3" s="11">
+        <v>5933.3500700000004</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="3"/>
       <c r="I4" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <f>+J2*J3</f>
-        <v>87887.675038800007</v>
+        <v>117124.3303818</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3"/>
       <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="11">
+        <f>24857+684.706</f>
+        <v>25541.705999999998</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="11">
+        <f>4183.198+39.742</f>
+        <v>4222.9400000000005</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="I7" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="12">
-        <f>16977.595+2085.894+1881.837</f>
-        <v>20945.326000000001</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="I6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="12">
-        <v>4029.5050000000001</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <f>+J4-J5+J6</f>
-        <v>70971.854038800011</v>
+        <v>95805.56438180001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656E3CEB-BDB3-4C6D-8679-6AF53640C1EF}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>2019</v>
+      </c>
+      <c r="D2">
+        <f>+C2+1</f>
+        <v>2020</v>
+      </c>
+      <c r="E2">
+        <f>+D2+1</f>
+        <v>2021</v>
+      </c>
+      <c r="F2">
+        <f>+E2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="G2">
+        <f>+F2+1</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="14">
+        <v>8682746</v>
+      </c>
+      <c r="D3" s="14">
+        <v>8690234</v>
+      </c>
+      <c r="E3" s="14">
+        <v>9935141</v>
+      </c>
+      <c r="F3" s="14">
+        <v>9382410</v>
+      </c>
+      <c r="G3" s="14">
+        <v>10103806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="11">
+        <v>729540</v>
+      </c>
+      <c r="D4" s="11">
+        <v>801561</v>
+      </c>
+      <c r="E4" s="11">
+        <v>870042</v>
+      </c>
+      <c r="F4" s="11">
+        <v>867010</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1030863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11">
+        <f t="shared" ref="C5:E5" si="0">+C3-C4</f>
+        <v>7953206</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>7888673</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>9065099</v>
+      </c>
+      <c r="F5" s="11">
+        <f>+F3-F4</f>
+        <v>8515400</v>
+      </c>
+      <c r="G5" s="11">
+        <f>+G3-G4</f>
+        <v>9072943</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="11">
+        <v>3266380</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3103018</v>
+      </c>
+      <c r="E6" s="11">
+        <v>3427818</v>
+      </c>
+      <c r="F6" s="11">
+        <v>3550230</v>
+      </c>
+      <c r="G6" s="11">
+        <v>3531163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="11">
+        <v>777692</v>
+      </c>
+      <c r="D7" s="11">
+        <v>758641</v>
+      </c>
+      <c r="E7" s="11">
+        <v>943423</v>
+      </c>
+      <c r="F7" s="11">
+        <v>597460</v>
+      </c>
+      <c r="G7" s="11">
+        <v>709844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1120681</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1252246</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1797012</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1693314</v>
+      </c>
+      <c r="G8" s="11">
+        <v>2097046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="11">
+        <f t="shared" ref="C9:F9" si="1">+C8+C7+C6</f>
+        <v>5164753</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="1"/>
+        <v>5113905</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="1"/>
+        <v>6168253</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="1"/>
+        <v>5841004</v>
+      </c>
+      <c r="G9" s="11">
+        <f>+G8+G7+G6</f>
+        <v>6338053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" ref="C10:F10" si="2">+C5-C9</f>
+        <v>2788453</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="2"/>
+        <v>2774768</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="2"/>
+        <v>2896846</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="2"/>
+        <v>2674396</v>
+      </c>
+      <c r="G10" s="11">
+        <f>+G5-G9</f>
+        <v>2734890</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="11">
+        <v>444183</v>
+      </c>
+      <c r="D11" s="11">
+        <v>529392</v>
+      </c>
+      <c r="E11" s="11">
+        <v>587180</v>
+      </c>
+      <c r="F11" s="11">
+        <v>364681</v>
+      </c>
+      <c r="G11" s="11">
+        <v>488652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="11">
+        <f>+C10-C11</f>
+        <v>2344270</v>
+      </c>
+      <c r="D12" s="11">
+        <f>+D10-D11</f>
+        <v>2245376</v>
+      </c>
+      <c r="E12" s="11">
+        <f>+E10-E11</f>
+        <v>2309666</v>
+      </c>
+      <c r="F12" s="11">
+        <f>+F10-F11</f>
+        <v>2309715</v>
+      </c>
+      <c r="G12" s="11">
+        <f>+G10-G11</f>
+        <v>2246238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="13">
+        <f t="shared" ref="D16:G16" si="3">+D3/C3-1</f>
+        <v>8.6239998267823026E-4</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="3"/>
+        <v>0.14325356486373098</v>
+      </c>
+      <c r="F16" s="13">
+        <f t="shared" si="3"/>
+        <v>-5.563393614645229E-2</v>
+      </c>
+      <c r="G16" s="13">
+        <f>+G3/F3-1</f>
+        <v>7.6888134285327592E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="11">
+        <v>9123</v>
       </c>
     </row>
   </sheetData>
